--- a/data/trans_bre/P1002-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1002-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>94,51%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,5; 14,96</t>
+          <t>7,16; 14,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,18; 154,12</t>
+          <t>50,67; 153,3</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,01%</t>
+          <t>48,3%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,06</t>
+          <t>0,25; 4,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,85; 96,46</t>
+          <t>6,51; 123,3</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>83,96%</t>
+          <t>83,93%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,72</t>
+          <t>0,82; 5,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,92; 214,62</t>
+          <t>13,6; 221,31</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>82,94%</t>
+          <t>83,76%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,35</t>
+          <t>2,68; 6,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,69; 118,3</t>
+          <t>45,57; 134,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1002-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1002-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 5,51</t>
+          <t>0,3; 5,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 13,52</t>
+          <t>6,5; 13,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 14,76</t>
+          <t>7,7; 14,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 14,26</t>
+          <t>7,52; 14,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 63,45</t>
+          <t>2,45; 64,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,39; 120,56</t>
+          <t>44,06; 118,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>71,67; 188,07</t>
+          <t>73,13; 183,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,67; 153,3</t>
+          <t>55,08; 159,21</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,71</t>
+          <t>1,9; 4,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,61</t>
+          <t>3,32; 7,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,37</t>
+          <t>1,4; 4,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 4,23</t>
+          <t>0,01; 4,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,96; 204,88</t>
+          <t>53,24; 211,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,87; 169,48</t>
+          <t>62,14; 177,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,28; 112,37</t>
+          <t>28,98; 112,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,51; 123,3</t>
+          <t>3,67; 117,02</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,77</t>
+          <t>-1,49; 3,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,46</t>
+          <t>-1,3; 4,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,01</t>
+          <t>-0,61; 3,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,84</t>
+          <t>0,73; 5,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 150,15</t>
+          <t>-33,84; 143,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,3; 273,85</t>
+          <t>-32,82; 269,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 217,89</t>
+          <t>-23,28; 188,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,6; 221,31</t>
+          <t>7,83; 201,17</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,53</t>
+          <t>1,97; 4,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,64</t>
+          <t>5,81; 8,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,71</t>
+          <t>4,03; 6,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,23</t>
+          <t>2,79; 6,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,81; 97,13</t>
+          <t>33,16; 97,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,61; 140,81</t>
+          <t>77,58; 144,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,43; 139,27</t>
+          <t>67,93; 141,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,57; 134,38</t>
+          <t>49,27; 137,94</t>
         </is>
       </c>
     </row>
